--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail11 Features.xlsx
@@ -5971,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5982,29 +5982,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6025,115 +6023,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6150,72 +6138,66 @@
         <v>1.342488432446988e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1915601883805858</v>
+        <v>6.055821706346859e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.004685950827727</v>
+        <v>1.738899641505382e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.055821706346859e-07</v>
+        <v>-0.06915209556797217</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.738899641505382e-06</v>
+        <v>0.3277914427976963</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06915209556797217</v>
+        <v>0.1119734015440485</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3277914427976963</v>
+        <v>1.853459430175479</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1119734015440485</v>
+        <v>1.64829609869576</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.826005991193592</v>
+        <v>5.498217399221082</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.64829609869576</v>
+        <v>4.149114338430004e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.498217399221082</v>
+        <v>324342037.5612469</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.149114338430004e-16</v>
+        <v>3.649158400495853e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>324342037.5612469</v>
+        <v>43.64775233060159</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.649158400495853e-07</v>
+        <v>0.0001397449847210655</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>43.64775233060159</v>
+        <v>8.193333725694332</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001397449847210655</v>
+        <v>1.295552274467459</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.193333725694332</v>
+        <v>0.009381181097025331</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.295552274467459</v>
+        <v>3.013770152660547</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009381181097025331</v>
+        <v>0.9590570135888591</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.013770152660547</v>
+        <v>1.562494122452609</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9590570135888591</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.562494122452609</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2615751160831185</v>
       </c>
     </row>
@@ -6230,72 +6212,66 @@
         <v>1.314810944005945e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1696581553519978</v>
+        <v>4.622617969250764e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.125641878653425</v>
+        <v>1.731499719873308e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.622617969250764e-07</v>
+        <v>-0.04376137239530459</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.731499719873308e-06</v>
+        <v>0.2536137100573772</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04376137239530459</v>
+        <v>0.06609544447948973</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2536137100573772</v>
+        <v>1.868212529986806</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06609544447948973</v>
+        <v>1.812424238184776</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.843237657301061</v>
+        <v>4.408147898724703</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.812424238184776</v>
+        <v>2.592045651978463e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.408147898724703</v>
+        <v>499502139.8394398</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.592045651978463e-16</v>
+        <v>2.373104257170914e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>499502139.8394398</v>
+        <v>64.67215792068626</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.373104257170914e-07</v>
+        <v>0.0001331928488463291</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>64.67215792068626</v>
+        <v>8.428603245310013</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001331928488463291</v>
+        <v>1.318655264675862</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.428603245310013</v>
+        <v>0.009462200147594576</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.318655264675862</v>
+        <v>2.953402170772105</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009462200147594576</v>
+        <v>0.9605743386803911</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.953402170772105</v>
+        <v>1.549101248247634</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9605743386803911</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.549101248247634</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2992120940988164</v>
       </c>
     </row>
@@ -6310,72 +6286,66 @@
         <v>1.331814151692645e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2079856459494407</v>
+        <v>4.622617969250764e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.135139883581175</v>
+        <v>1.727055609727834e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.622617969250764e-07</v>
+        <v>-0.02488316178965428</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.727055609727834e-06</v>
+        <v>0.1981554585966987</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02488316178965428</v>
+        <v>0.03981871151735838</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1981554585966987</v>
+        <v>1.862490958904819</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03981871151735838</v>
+        <v>1.937654180493674</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.843642429097544</v>
+        <v>4.67047681445833</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.937654180493674</v>
+        <v>2.205678720571692e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.67047681445833</v>
+        <v>574248216.0946137</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.205678720571692e-16</v>
+        <v>2.060016451560154e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>574248216.0946137</v>
+        <v>72.73468507654326</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.060016451560154e-07</v>
+        <v>0.000129176719393211</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>72.73468507654326</v>
+        <v>8.173845267879496</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000129176719393211</v>
+        <v>1.312854502021062</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.173845267879496</v>
+        <v>0.008630522225051802</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.312854502021062</v>
+        <v>3.02878366772429</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008630522225051802</v>
+        <v>0.961249667137087</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.02878366772429</v>
+        <v>1.54949053511169</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.961249667137087</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.54949053511169</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3196682720589736</v>
       </c>
     </row>
@@ -6390,72 +6360,66 @@
         <v>1.35417135135509e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2000108640971514</v>
+        <v>4.622617969250764e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.163626489126775</v>
+        <v>1.724611615764895e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.622617969250764e-07</v>
+        <v>-0.01265199956967696</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.724611615764895e-06</v>
+        <v>0.1657483378756594</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01265199956967696</v>
+        <v>0.02760513919448224</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1657483378756594</v>
+        <v>1.862448219662615</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02760513919448224</v>
+        <v>2.108352609549986</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.848217717390805</v>
+        <v>4.727883436388815</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.108352609549986</v>
+        <v>2.152440588200592e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.727883436388815</v>
+        <v>601269525.9301409</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.152440588200592e-16</v>
+        <v>1.971518001804833e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>601269525.9301409</v>
+        <v>77.8161175800057</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.971518001804833e-07</v>
+        <v>0.0001332390865896164</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>77.8161175800057</v>
+        <v>7.681410975197052</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001332390865896164</v>
+        <v>1.387575473405604</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.681410975197052</v>
+        <v>0.007861649000756119</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.387575473405604</v>
+        <v>3.166656998594235</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007861649000756119</v>
+        <v>0.9624177809761501</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.166656998594235</v>
+        <v>1.539867756817163</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9624177809761501</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.539867756817163</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3558826831009497</v>
       </c>
     </row>
@@ -6470,72 +6434,66 @@
         <v>1.369226339407202e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1773566272557947</v>
+        <v>4.698273046873506e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.163566491607232</v>
+        <v>1.723422542450794e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.698273046873506e-07</v>
+        <v>-0.005589038861622951</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.723422542450794e-06</v>
+        <v>0.1514417374428908</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.005589038861622951</v>
+        <v>0.0229575145671667</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1514417374428908</v>
+        <v>1.750601695129579</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0229575145671667</v>
+        <v>1.356491798216119</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.779146017072722</v>
+        <v>21.05437627670535</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.356491798216119</v>
+        <v>5.451220551607642e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>21.05437627670535</v>
+        <v>1982375208.677746</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.451220551607642e-16</v>
+        <v>5.514339288324568e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1982375208.677746</v>
+        <v>2142.226903819672</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.514339288324568e-08</v>
+        <v>0.0001582189428187544</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2142.226903819672</v>
+        <v>8.885459866748985</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001582189428187544</v>
+        <v>1.431033941431183</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.885459866748985</v>
+        <v>0.01249160657430321</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.431033941431183</v>
+        <v>3.12942718565504</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01249160657430321</v>
+        <v>0.9625729046694745</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.12942718565504</v>
+        <v>0.9161642623769208</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9625729046694745</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9161642623769208</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4969488509805001</v>
       </c>
     </row>
@@ -6550,72 +6508,66 @@
         <v>1.376402871114117e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1625139778103508</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.154782004441955</v>
+        <v>1.722932582536993e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.002088519621220853</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.722932582536993e-06</v>
+        <v>0.1475163358467262</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.002088519621220853</v>
+        <v>0.02176445297204388</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1475163358467262</v>
+        <v>1.745745616532441</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02176445297204388</v>
+        <v>1.360319417212138</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.770979690246253</v>
+        <v>18.25558778940959</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.360319417212138</v>
+        <v>7.250815798838812e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>18.25558778940959</v>
+        <v>1490335932.48837</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.250815798838812e-16</v>
+        <v>7.334971338636208e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1490335932.48837</v>
+        <v>1610.47956113514</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.334971338636208e-08</v>
+        <v>0.0001607879788567526</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1610.47956113514</v>
+        <v>11.02607267681665</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001607879788567526</v>
+        <v>1.364079340637117</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.02607267681665</v>
+        <v>0.01954768254903124</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.364079340637117</v>
+        <v>4.155185038065323</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01954768254903124</v>
+        <v>0.9612724064927095</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.155185038065323</v>
+        <v>0.9620163292019404</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9612724064927095</v>
+        <v>22</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9620163292019404</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.119147256776877</v>
       </c>
     </row>
@@ -6630,72 +6582,66 @@
         <v>1.379354354563079e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1558954580535583</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.14975642357</v>
+        <v>1.722739300222504e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.00103379978982334</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.722739300222504e-06</v>
+        <v>0.1470300620462656</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.00103379978982334</v>
+        <v>0.02161873738589049</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1470300620462656</v>
+        <v>1.756181208827321</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02161873738589049</v>
+        <v>1.333255944501464</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.790440788579437</v>
+        <v>17.33000201646578</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.333255944501464</v>
+        <v>8.046023330461186e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>17.33000201646578</v>
+        <v>1342715027.401318</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.046023330461186e-16</v>
+        <v>8.141838590808387e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1342715027.401318</v>
+        <v>1450.604386824271</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.141838590808387e-08</v>
+        <v>7.192150357788607e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1450.604386824271</v>
+        <v>11.77787525097971</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>7.192150357788607e-05</v>
+        <v>1.24379416098085</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.77787525097971</v>
+        <v>0.00997683197699247</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.24379416098085</v>
+        <v>6.148106554849094</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00997683197699247</v>
+        <v>0.9625821973440922</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>6.148106554849094</v>
+        <v>0.8546867287312735</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9625821973440922</v>
+        <v>21</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8546867287312735</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>5.099699929278586</v>
       </c>
     </row>
@@ -6710,72 +6656,66 @@
         <v>1.38172016472105e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1509277150377272</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.146597657811811</v>
+        <v>1.722578621186456e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.001464624388955429</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.722578621186456e-06</v>
+        <v>0.1464931609447188</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.001464624388955429</v>
+        <v>0.02146047268088974</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1464931609447188</v>
+        <v>1.757405023287466</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02146047268088974</v>
+        <v>1.320162808517656</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.793667026407922</v>
+        <v>16.87465013869226</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.320162808517656</v>
+        <v>8.486115906851756e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>16.87465013869226</v>
+        <v>1272759680.61242</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.486115906851756e-16</v>
+        <v>8.589089764421907e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1272759680.61242</v>
+        <v>1374.680515767634</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.589089764421907e-08</v>
+        <v>3.731607402084844e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1374.680515767634</v>
+        <v>10.73257464098567</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.731607402084844e-05</v>
+        <v>1.136622606221049</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.73257464098567</v>
+        <v>0.004298369846087465</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.136622606221049</v>
+        <v>6.934394265962177</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.004298369846087465</v>
+        <v>0.9621576486680088</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.934394265962177</v>
+        <v>0.8822459214215667</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9621576486680088</v>
+        <v>17</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8822459214215667</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>6.588477118891356</v>
       </c>
     </row>
@@ -6790,72 +6730,66 @@
         <v>1.38572274895059e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1442394022689176</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.145355773050144</v>
+        <v>1.722280967525958e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.003035581435879498</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.722280967525958e-06</v>
+        <v>0.1443608755561798</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.003035581435879498</v>
+        <v>0.0208447251093731</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1443608755561798</v>
+        <v>1.656575960540617</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0208447251093731</v>
+        <v>1.242190510836051</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.725076765849514</v>
+        <v>38.46463702781968</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.242190510836051</v>
+        <v>2.237416397024062e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>38.46463702781968</v>
+        <v>1411657131.646149</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.237416397024062e-15</v>
+        <v>7.587606157711882e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1411657131.646149</v>
+        <v>4458.669378778081</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.587606157711882e-08</v>
+        <v>3.130639764975214e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4458.669378778081</v>
+        <v>9.637854746197204</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.130639764975214e-05</v>
+        <v>1.200270219331029</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.637854746197204</v>
+        <v>0.002907996307057214</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.200270219331029</v>
+        <v>7.150422310459737</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002907996307057214</v>
+        <v>0.9610280230940353</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.150422310459737</v>
+        <v>0.6922868948970498</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9610280230940353</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6922868948970498</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>6.977746138385107</v>
       </c>
     </row>
@@ -6870,72 +6804,66 @@
         <v>1.392607001387892e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1368416608905916</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.151183725770673</v>
+        <v>1.721699933367847e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.005243191145900756</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.721699933367847e-06</v>
+        <v>0.141181467812952</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.005243191145900756</v>
+        <v>0.0199571218704741</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.141181467812952</v>
+        <v>1.644656080462712</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0199571218704741</v>
+        <v>1.241201166270778</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.707451425508955</v>
+        <v>36.18847650854087</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.241201166270778</v>
+        <v>2.527723076007953e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>36.18847650854087</v>
+        <v>1249580109.91145</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.527723076007953e-15</v>
+        <v>8.571448179406516e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1249580109.91145</v>
+        <v>3946.914337253897</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.571448179406516e-08</v>
+        <v>4.820786571189247e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3946.914337253897</v>
+        <v>8.96275720191769</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>4.820786571189247e-05</v>
+        <v>1.641231542268532</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.96275720191769</v>
+        <v>0.003872586863670503</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.641231542268532</v>
+        <v>6.836075694246746</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003872586863670503</v>
+        <v>0.9591767735208031</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>6.836075694246746</v>
+        <v>0.8624530343431134</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9591767735208031</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8624530343431134</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>6.332738094909728</v>
       </c>
     </row>
@@ -6950,72 +6878,66 @@
         <v>1.401475077027186e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.131885492684323</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.165372526971098</v>
+        <v>1.720860898896074e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.006498478337650962</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.720860898896074e-06</v>
+        <v>0.1393281256325653</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.006498478337650962</v>
+        <v>0.01945408032169835</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1393281256325653</v>
+        <v>1.642185502676955</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01945408032169835</v>
+        <v>1.239678478236089</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.703539027327113</v>
+        <v>34.64672083776701</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.239678478236089</v>
+        <v>2.757692386072355e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>34.64672083776701</v>
+        <v>1145331238.060874</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.757692386072355e-15</v>
+        <v>9.351441337609053e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1145331238.060874</v>
+        <v>3617.495769654449</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.351441337609053e-08</v>
+        <v>4.959101818416067e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3617.495769654449</v>
+        <v>10.08108054292432</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>4.959101818416067e-05</v>
+        <v>1.550821242156858</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.08108054292432</v>
+        <v>0.005039845166040216</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.550821242156858</v>
+        <v>7.025143955419527</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005039845166040216</v>
+        <v>0.9578304633647985</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.025143955419527</v>
+        <v>0.8486838829864435</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9578304633647985</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8486838829864435</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>7.239970919427039</v>
       </c>
     </row>
@@ -7030,72 +6952,66 @@
         <v>1.410540708765788e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1296444069686388</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.182974148080874</v>
+        <v>1.719940806031188e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.006364050439044076</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.719940806031188e-06</v>
+        <v>0.1384330139091171</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.006364050439044076</v>
+        <v>0.01920408785143854</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1384330139091171</v>
+        <v>1.636541415634104</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01920408785143854</v>
+        <v>1.237278176897126</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.694180232116358</v>
+        <v>34.47978309847424</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.237278176897126</v>
+        <v>2.784460384042559e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>34.47978309847424</v>
+        <v>1134293535.847976</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.784460384042559e-15</v>
+        <v>9.442287580366799e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1134293535.847976</v>
+        <v>3582.547502256001</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.442287580366799e-08</v>
+        <v>2.35295304199511e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3582.547502256001</v>
+        <v>10.97310512622722</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.35295304199511e-05</v>
+        <v>1.245982124018942</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.97310512622722</v>
+        <v>0.002833168078016275</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.245982124018942</v>
+        <v>7.908254143643704</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.002833168078016275</v>
+        <v>0.9574217073543155</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>7.908254143643704</v>
+        <v>0.7913913954791284</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9574217073543155</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7913913954791284</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>9.10550875646277</v>
       </c>
     </row>
@@ -7110,72 +7026,66 @@
         <v>1.418358128735375e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1290018557175192</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.199307583935348</v>
+        <v>1.719118108435736e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.005115258793736023</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.719118108435736e-06</v>
+        <v>0.1378536579002367</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.005115258793736023</v>
+        <v>0.01902945997322918</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1378536579002367</v>
+        <v>1.636357205758012</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01902945997322918</v>
+        <v>1.236945150226059</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.691528812879041</v>
+        <v>34.4163527586848</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.236945150226059</v>
+        <v>2.79473352522957e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>34.4163527586848</v>
+        <v>1130124780.668315</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.79473352522957e-15</v>
+        <v>9.47717211654741e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1130124780.668315</v>
+        <v>3569.383408780754</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.47717211654741e-08</v>
+        <v>1.63187391972797e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3569.383408780754</v>
+        <v>10.50349468043837</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>1.63187391972797e-05</v>
+        <v>1.159477599273035</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.50349468043837</v>
+        <v>0.001800338800149129</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.159477599273035</v>
+        <v>8.162807186312893</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.001800338800149129</v>
+        <v>0.9585508072957981</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.162807186312893</v>
+        <v>0.8428377788744187</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9585508072957981</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.8428377788744187</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>9.826202397763296</v>
       </c>
     </row>
@@ -7190,72 +7100,66 @@
         <v>1.423877702963293e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1292237280937873</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.211451685877624</v>
+        <v>1.718521608019058e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.003206972518357774</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.718521608019058e-06</v>
+        <v>0.1376205469572532</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.003206972518357774</v>
+        <v>0.0189491518422062</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1376205469572532</v>
+        <v>1.636058236937431</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0189491518422062</v>
+        <v>1.240108513170058</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.690646265135305</v>
+        <v>34.40299056988489</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.240108513170058</v>
+        <v>2.796904906762683e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>34.40299056988489</v>
+        <v>1129302088.988474</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.796904906762683e-15</v>
+        <v>9.484179491461713e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1129302088.988474</v>
+        <v>3566.957738705377</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.484179491461713e-08</v>
+        <v>1.796575064155168e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3566.957738705377</v>
+        <v>9.179718809755743</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.796575064155168e-05</v>
+        <v>1.210695207582715</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.179718809755743</v>
+        <v>0.001513924174851242</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.210695207582715</v>
+        <v>8.101326757317455</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.001513924174851242</v>
+        <v>0.959059554683634</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.101326757317455</v>
+        <v>0.8476043270843155</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.959059554683634</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8476043270843155</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>9.539071156405299</v>
       </c>
     </row>
@@ -7270,72 +7174,66 @@
         <v>1.426634865826185e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1296825291269048</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.217845228104484</v>
+        <v>1.718214858222698e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.001073179187656909</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.718214858222698e-06</v>
+        <v>0.1377889008998557</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.001073179187656909</v>
+        <v>0.0189862493647621</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1377889008998557</v>
+        <v>1.638379409899883</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0189862493647621</v>
+        <v>1.241260811545222</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.692385501873533</v>
+        <v>34.5014066159933</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.241260811545222</v>
+        <v>2.780971195296187e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>34.5014066159933</v>
+        <v>1135797047.634925</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.780971195296187e-15</v>
+        <v>9.430019627834921e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1135797047.634925</v>
+        <v>3587.549990756323</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.430019627834921e-08</v>
+        <v>2.543028261921173e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3587.549990756323</v>
+        <v>8.065267368031275</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.543028261921173e-05</v>
+        <v>1.405988630211919</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.065267368031275</v>
+        <v>0.001654202698130874</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.405988630211919</v>
+        <v>7.804182204174522</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.001654202698130874</v>
+        <v>0.9600080259410573</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>7.804182204174522</v>
+        <v>0.7908185852079985</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9600080259410573</v>
+        <v>6</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7908185852079985</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>8.651530872395766</v>
       </c>
     </row>
@@ -7350,72 +7248,66 @@
         <v>1.42669705836092e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1296660968249316</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.217965997300715</v>
+        <v>1.718207995757623e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>0.0008859790598732893</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.718207995757623e-06</v>
+        <v>0.1383114273580502</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0008859790598732893</v>
+        <v>0.01913037858365633</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1383114273580502</v>
+        <v>1.624319809325907</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01913037858365633</v>
+        <v>1.242584447192425</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.672312298273163</v>
+        <v>33.48441078312544</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.242584447192425</v>
+        <v>2.952465090641467e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>33.48441078312544</v>
+        <v>1069924979.722716</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.952465090641467e-15</v>
+        <v>1.001017193808101e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1069924979.722716</v>
+        <v>3379.803300127504</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.001017193808101e-07</v>
+        <v>3.328421595748087e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3379.803300127504</v>
+        <v>8.444250358967718</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.328421595748087e-05</v>
+        <v>1.463435930307564</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.444250358967718</v>
+        <v>0.00237334313846086</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.463435930307564</v>
+        <v>7.463363887009231</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00237334313846086</v>
+        <v>0.9572842295238008</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.463363887009231</v>
+        <v>0.9190094440323877</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9572842295238008</v>
+        <v>7</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9190094440323877</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>7.926801199037034</v>
       </c>
     </row>
@@ -7430,72 +7322,66 @@
         <v>1.425069823565178e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1288265101637615</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.21368207293878</v>
+        <v>1.718403591330444e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>0.001558446630310145</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.718403591330444e-06</v>
+        <v>0.1386155724162303</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.001558446630310145</v>
+        <v>0.01921664969967878</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1386155724162303</v>
+        <v>1.62103583936974</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01921664969967878</v>
+        <v>1.243577607079443</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.663553060957106</v>
+        <v>29.03614548979082</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.243577607079443</v>
+        <v>3.926378527343871e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>29.03614548979082</v>
+        <v>804608097.5155181</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.926378527343871e-15</v>
+        <v>1.331131457676965e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>804608097.5155181</v>
+        <v>2541.914648650088</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.331131457676965e-07</v>
+        <v>2.968561638390656e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2541.914648650088</v>
+        <v>10.21545256608766</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.968561638390656e-05</v>
+        <v>1.254432448421853</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.21545256608766</v>
+        <v>0.00309785648352663</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.254432448421853</v>
+        <v>7.569595863301876</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.00309785648352663</v>
+        <v>0.956082770886183</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>7.569595863301876</v>
+        <v>0.8956481103977756</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.956082770886183</v>
+        <v>7</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8956481103977756</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>8.391011370171425</v>
       </c>
     </row>
@@ -7510,72 +7396,66 @@
         <v>1.423790402333942e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.128058869620229</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.210209720320699</v>
+        <v>1.718560425029668e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>0.0003456290090036249</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.718560425029668e-06</v>
+        <v>0.1386083951299036</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.0003456290090036249</v>
+        <v>0.01921187341294063</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1386083951299036</v>
+        <v>1.616986707987803</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01921187341294063</v>
+        <v>1.244718799349176</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.656081081648739</v>
+        <v>27.22696179302228</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.244718799349176</v>
+        <v>4.465516822794238e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>27.22696179302228</v>
+        <v>707480757.8154351</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.465516822794238e-15</v>
+        <v>1.513869836270134e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>707480757.8154351</v>
+        <v>2235.12077107029</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.513869836270134e-07</v>
+        <v>3.022640966697237e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2235.12077107029</v>
+        <v>10.2134946617186</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.022640966697237e-05</v>
+        <v>1.223754217900315</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.2134946617186</v>
+        <v>0.003153082227697029</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.223754217900315</v>
+        <v>7.596031630080295</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.003153082227697029</v>
+        <v>0.9545542340237383</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>7.596031630080295</v>
+        <v>0.8027824530100822</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9545542340237383</v>
+        <v>7</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8027824530100822</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>8.41726126947334</v>
       </c>
     </row>
@@ -7590,72 +7470,66 @@
         <v>1.424787036404665e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1287771540498814</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.213002444481826</v>
+        <v>1.718434184796383e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.002286534554698707</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.718434184796383e-06</v>
+        <v>0.1381414691791387</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.002286534554698707</v>
+        <v>0.01908709830340732</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1381414691791387</v>
+        <v>1.614226808978593</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01908709830340732</v>
+        <v>1.243379290889523</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.649808313576589</v>
+        <v>26.89317106448467</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.243379290889523</v>
+        <v>4.577054301879665e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>26.89317106448467</v>
+        <v>690212556.9253637</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.577054301879665e-15</v>
+        <v>1.551721989440687e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>690212556.9253637</v>
+        <v>2180.478340651955</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.551721989440687e-07</v>
+        <v>3.581232023894701e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2180.478340651955</v>
+        <v>9.683086418154613</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>3.581232023894701e-05</v>
+        <v>1.227051652063357</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.683086418154613</v>
+        <v>0.003357840592663114</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.227051652063357</v>
+        <v>7.32136919426963</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.003357840592663114</v>
+        <v>0.9532950808732874</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.32136919426963</v>
+        <v>0.8964588302535554</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9532950808732874</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8964588302535554</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>7.780473657960056</v>
       </c>
     </row>
@@ -7670,72 +7544,66 @@
         <v>1.429124384943165e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1323602273516514</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.225200906286842</v>
+        <v>1.717869854218281e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.005694125047765786</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.717869854218281e-06</v>
+        <v>0.1370137484980429</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.005694125047765786</v>
+        <v>0.01880358286746387</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1370137484980429</v>
+        <v>1.623902799130749</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01880358286746387</v>
+        <v>1.19707190472754</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.647979911764457</v>
+        <v>22.51563078617734</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.19707190472754</v>
+        <v>4.155854876503719e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>22.51563078617734</v>
+        <v>714987960.5509944</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.155854876503719e-15</v>
+        <v>1.494146383530165e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>714987960.5509944</v>
+        <v>2124.505360932907</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.494146383530165e-07</v>
+        <v>4.780320498891877e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2124.505360932907</v>
+        <v>9.399022335353891</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>4.780320498891877e-05</v>
+        <v>1.223288274179768</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.399022335353891</v>
+        <v>0.00422301261104693</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.223288274179768</v>
+        <v>6.721309966884718</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00422301261104693</v>
+        <v>0.9520395995195032</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.721309966884718</v>
+        <v>0.8802640825454432</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9520395995195032</v>
+        <v>5</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8802640825454432</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.548508167538575</v>
       </c>
     </row>
@@ -7750,72 +7618,66 @@
         <v>1.437023488479555e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1400601246348101</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.246931130760314</v>
+        <v>1.716794231622235e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.00933458827156769</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.716794231622235e-06</v>
+        <v>0.1353076529275687</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.00933458827156769</v>
+        <v>0.01839346065744203</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1353076529275687</v>
+        <v>1.627900049289661</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01839346065744203</v>
+        <v>1.201255006072345</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.654515395497254</v>
+        <v>23.72061910740613</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.201255006072345</v>
+        <v>3.744351148827278e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>23.72061910740613</v>
+        <v>793589820.7615371</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.744351148827278e-15</v>
+        <v>1.346150287760094e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>793589820.7615371</v>
+        <v>2358.135452934761</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.346150287760094e-07</v>
+        <v>7.613220054362223e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2358.135452934761</v>
+        <v>8.935425497324077</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>7.613220054362223e-05</v>
+        <v>1.257347988941261</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.935425497324077</v>
+        <v>0.006078534123358985</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.257347988941261</v>
+        <v>5.555120598919171</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.006078534123358985</v>
+        <v>0.9522545803586161</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.555120598919171</v>
+        <v>0.8940020442833579</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9522545803586161</v>
+        <v>22</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8940020442833579</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>4.275938163448536</v>
       </c>
     </row>
@@ -7830,72 +7692,66 @@
         <v>1.44822851729308e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1532330909188263</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.275981429517764</v>
+        <v>1.715161341882901e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.01339430364261395</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.715161341882901e-06</v>
+        <v>0.1325704334716336</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.01339430364261395</v>
+        <v>0.01775161677943739</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1325704334716336</v>
+        <v>1.629536684296842</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01775161677943739</v>
+        <v>1.202154730786321</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.655859960756084</v>
+        <v>24.67244525934833</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.202154730786321</v>
+        <v>3.46102090260149e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>24.67244525934833</v>
+        <v>858568368.9712325</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.46102090260149e-15</v>
+        <v>1.244279860692433e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>858568368.9712325</v>
+        <v>2551.255716705234</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.244279860692433e-07</v>
+        <v>0.0001244781859761422</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2551.255716705234</v>
+        <v>8.449350812882656</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001244781859761422</v>
+        <v>1.324128693532168</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.449350812882656</v>
+        <v>0.008886688043795197</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.324128693532168</v>
+        <v>3.915236374155053</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008886688043795197</v>
+        <v>0.9522031109792657</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.915236374155053</v>
+        <v>0.8809011124585874</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9522031109792657</v>
+        <v>26</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8809011124585874</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.489237304446221</v>
       </c>
     </row>
@@ -7910,72 +7766,66 @@
         <v>1.462178738492532e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1741859989239573</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.308217943836373</v>
+        <v>1.712888429629471e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.01784832186839229</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.712888429629471e-06</v>
+        <v>0.1286072123779077</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.01784832186839229</v>
+        <v>0.01685525590765952</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1286072123779077</v>
+        <v>1.630606694935246</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01685525590765952</v>
+        <v>1.2027446478421</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.65744535675257</v>
+        <v>26.24453773318342</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.2027446478421</v>
+        <v>3.058797701611289e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>26.24453773318342</v>
+        <v>971489935.8877717</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.058797701611289e-15</v>
+        <v>1.099657051161694e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>971489935.8877717</v>
+        <v>2886.87092788844</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.099657051161694e-07</v>
+        <v>0.0001693211153443864</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2886.87092788844</v>
+        <v>9.038958935439714</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001693211153443864</v>
+        <v>1.36848596156716</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.038958935439714</v>
+        <v>0.01383400560547876</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.36848596156716</v>
+        <v>2.89367875302296</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01383400560547876</v>
+        <v>0.9510888214100662</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.89367875302296</v>
+        <v>0.8804607833671966</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9510888214100662</v>
+        <v>29</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8804607833671966</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2195391897604769</v>
       </c>
     </row>
@@ -7990,72 +7840,66 @@
         <v>1.477774266720677e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2041643567136391</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.336818316022242</v>
+        <v>1.709937233228504e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.02216291242613733</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.709937233228504e-06</v>
+        <v>0.1245217217003161</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02216291242613733</v>
+        <v>0.01599482259690906</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1245217217003161</v>
+        <v>1.721011014336713</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01599482259690906</v>
+        <v>1.72443776379874</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.645628554923898</v>
+        <v>3.970156729609498</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.72443776379874</v>
+        <v>1.492595944086039e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.970156729609498</v>
+        <v>95888043.65581968</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.492595944086039e-15</v>
+        <v>1.166793151234049e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>95888043.65581968</v>
+        <v>13.72369865686161</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.166793151234049e-06</v>
+        <v>0.000176996077331139</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>13.72369865686161</v>
+        <v>10.71072004271652</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000176996077331139</v>
+        <v>1.187939413728674</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.71072004271652</v>
+        <v>0.02030490571181665</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.187939413728674</v>
+        <v>2.695060195206744</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02030490571181665</v>
+        <v>0.9504997623402088</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.695060195206744</v>
+        <v>1.738738217131067</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9504997623402088</v>
+        <v>28</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.738738217131067</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1643562874625903</v>
       </c>
     </row>
@@ -8070,72 +7914,66 @@
         <v>1.494321408764814e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2404548526303751</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.356603079093319</v>
+        <v>1.706390398426876e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.0253657861539663</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.706390398426876e-06</v>
+        <v>0.1220889153522123</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0253657861539663</v>
+        <v>0.0155481910055264</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1220889153522123</v>
+        <v>1.756346333032521</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0155481910055264</v>
+        <v>1.709378560533248</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.684004441440865</v>
+        <v>4.054600517948019</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.709378560533248</v>
+        <v>1.431071779358092e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.054600517948019</v>
+        <v>98176620.62109804</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.431071779358092e-15</v>
+        <v>1.162641251594727e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>98176620.62109804</v>
+        <v>13.79359834117093</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.162641251594727e-06</v>
+        <v>0.0001626857438035724</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>13.79359834117093</v>
+        <v>11.07208991594266</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001626857438035724</v>
+        <v>1.129444682237897</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.07208991594266</v>
+        <v>0.01994383650599061</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.129444682237897</v>
+        <v>2.659919612049533</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01994383650599061</v>
+        <v>0.9524587583489642</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.659919612049533</v>
+        <v>1.716326052252736</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9524587583489642</v>
+        <v>28</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.716326052252736</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1809439234449489</v>
       </c>
     </row>
@@ -8150,72 +7988,66 @@
         <v>1.511951317818264e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2786015586983823</v>
+        <v>4.731804268278812e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.366800933856086</v>
+        <v>1.702395013825905e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.731804268278812e-07</v>
+        <v>-0.02771039855820501</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.702395013825905e-06</v>
+        <v>0.1204661213075073</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.02771039855820501</v>
+        <v>0.01527925338283352</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1204661213075073</v>
+        <v>1.767106161343109</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01527925338283352</v>
+        <v>1.71459451399159</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.699990780449262</v>
+        <v>4.104139713664867</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.71459451399159</v>
+        <v>1.396732656200017e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.104139713664867</v>
+        <v>101061209.7614155</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.396732656200017e-15</v>
+        <v>1.134754977162642e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>101061209.7614155</v>
+        <v>14.26534478081842</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.134754977162642e-06</v>
+        <v>0.0001483102650547557</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>14.26534478081842</v>
+        <v>9.212616087515308</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001483102650547557</v>
+        <v>1.233349970365878</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.212616087515308</v>
+        <v>0.01258743259334999</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.233349970365878</v>
+        <v>2.903231862485233</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01258743259334999</v>
+        <v>0.9531536672259531</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.903231862485233</v>
+        <v>1.705957476819707</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9531536672259531</v>
+        <v>30</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.705957476819707</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1806371347895984</v>
       </c>
     </row>
@@ -8230,72 +8062,66 @@
         <v>1.530781038855113e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3164529983251891</v>
+        <v>4.829444241790059e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.36717899479496</v>
+        <v>1.698014644270121e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.829444241790059e-07</v>
+        <v>-0.02989831812375644</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.698014644270121e-06</v>
+        <v>0.1188349265803352</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.02989831812375644</v>
+        <v>0.01501486847983797</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1188349265803352</v>
+        <v>1.775140840875536</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01501486847983797</v>
+        <v>1.592541132521983</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.715531627361697</v>
+        <v>4.12404851738259</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.592541132521983</v>
+        <v>1.38327978021911e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.12404851738259</v>
+        <v>101994001.7843124</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.38327978021911e-15</v>
+        <v>1.129211101469881e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>101994001.7843124</v>
+        <v>14.38995025223056</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.129211101469881e-06</v>
+        <v>0.0001473838208204866</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>14.38995025223056</v>
+        <v>7.997135970519983</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001473838208204866</v>
+        <v>1.402555273639978</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.997135970519983</v>
+        <v>0.009425811955727911</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.402555273639978</v>
+        <v>2.98716666330844</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009425811955727911</v>
+        <v>0.9539907631819325</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.98716666330844</v>
+        <v>1.703301362791335</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9539907631819325</v>
+        <v>37</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.703301362791335</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1790614887404974</v>
       </c>
     </row>
@@ -8310,72 +8136,66 @@
         <v>1.550474957458676e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3540773968214674</v>
+        <v>4.982239001618934e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.35566477474806</v>
+        <v>1.693210094518119e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.982239001618934e-07</v>
+        <v>-0.03260413460229093</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.693210094518119e-06</v>
+        <v>0.1166475645666868</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03260413460229093</v>
+        <v>0.01466829032864223</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1166475645666868</v>
+        <v>1.781319551903483</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01466829032864223</v>
+        <v>1.540608477779878</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.722351566191828</v>
+        <v>4.290531016449489</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.540608477779878</v>
+        <v>1.245606959381474e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.290531016449489</v>
+        <v>115575051.9686597</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.245606959381474e-15</v>
+        <v>1.021459172178053e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>115575051.9686597</v>
+        <v>16.63831034992548</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.021459172178053e-06</v>
+        <v>0.0001528131282275681</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>16.63831034992548</v>
+        <v>8.275914805158688</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001528131282275681</v>
+        <v>1.378147219324848</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.275914805158688</v>
+        <v>0.01046628818611156</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.378147219324848</v>
+        <v>2.935940029631618</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01046628818611156</v>
+        <v>0.954949135316831</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.935940029631618</v>
+        <v>1.683893537338845</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.954949135316831</v>
+        <v>37</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.683893537338845</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1805787607271302</v>
       </c>
     </row>
@@ -8390,72 +8210,66 @@
         <v>1.569748429958553e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.393341834134798</v>
+        <v>5.114000534764028e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.327520607375432</v>
+        <v>1.687858747306972e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.114000534764028e-07</v>
+        <v>-0.03607360839818538</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.687858747306972e-06</v>
+        <v>0.1129403242063291</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03607360839818538</v>
+        <v>0.01405468192925476</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1129403242063291</v>
+        <v>1.696562385784402</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01405468192925476</v>
+        <v>1.371946872854402</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.693300311721861</v>
+        <v>13.98866839331154</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.371946872854402</v>
+        <v>1.488264830733684e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>13.98866839331154</v>
+        <v>725259914.802399</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.488264830733684e-15</v>
+        <v>1.503139752478699e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>725259914.802399</v>
+        <v>782.8301941812983</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.503139752478699e-07</v>
+        <v>0.000170837997899071</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>782.8301941812983</v>
+        <v>10.78873426420927</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000170837997899071</v>
+        <v>1.142793748773053</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.78873426420927</v>
+        <v>0.01988499405701744</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.142793748773053</v>
+        <v>2.70624553603884</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01988499405701744</v>
+        <v>0.9553369579492885</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.70624553603884</v>
+        <v>1.064251918751014</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9553369579492885</v>
+        <v>40</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.064251918751014</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.249421932212906</v>
       </c>
     </row>
@@ -8470,72 +8284,66 @@
         <v>1.58626486561928e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4363105146765413</v>
+        <v>5.213508381708192e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.278843480972397</v>
+        <v>1.681895946219767e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.213508381708192e-07</v>
+        <v>-0.03921216149506699</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.681895946219767e-06</v>
+        <v>0.1091824234684817</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03921216149506699</v>
+        <v>0.01345770454282083</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1091824234684817</v>
+        <v>1.692079988483109</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01345770454282083</v>
+        <v>1.366636640064524</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.690048575536045</v>
+        <v>13.7079128799477</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.366636640064524</v>
+        <v>1.549852250081518e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>13.7079128799477</v>
+        <v>696220372.0300092</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.549852250081518e-15</v>
+        <v>1.565671130102198e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>696220372.0300092</v>
+        <v>751.2487322107505</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.565671130102198e-07</v>
+        <v>0.0001769550856769759</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>751.2487322107505</v>
+        <v>12.29362052699921</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001769550856769759</v>
+        <v>1.094079274411575</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>12.29362052699921</v>
+        <v>0.02674377166102122</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.094079274411575</v>
+        <v>3.367929038039574</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02674377166102122</v>
+        <v>0.9533913346626477</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.367929038039574</v>
+        <v>1.043301178744188</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9533913346626477</v>
+        <v>40</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.043301178744188</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.269390685743233</v>
       </c>
     </row>
@@ -8550,72 +8358,66 @@
         <v>1.599634037181516e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4818485456518529</v>
+        <v>5.27586982093983e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.214356378794503</v>
+        <v>1.675522421174701e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.27586982093983e-07</v>
+        <v>-0.04045717012292464</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.675522421174701e-06</v>
+        <v>0.1075182415179578</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04045717012292464</v>
+        <v>0.01319711673273329</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1075182415179578</v>
+        <v>1.728652267777301</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01319711673273329</v>
+        <v>1.309422879835391</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.743767441006527</v>
+        <v>13.1177564606248</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.309422879835391</v>
+        <v>1.692442185818301e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>13.1177564606248</v>
+        <v>636981870.574545</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.692442185818301e-15</v>
+        <v>1.711573579016769e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>636981870.574545</v>
+        <v>686.7014837059088</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.711573579016769e-07</v>
+        <v>0.0001238143878024541</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>686.7014837059088</v>
+        <v>11.04373004788697</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001238143878024541</v>
+        <v>1.351525642249126</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.04373004788697</v>
+        <v>0.01510089469683583</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.351525642249126</v>
+        <v>5.202682834753616</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01510089469683583</v>
+        <v>0.9548550374726467</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>5.202682834753616</v>
+        <v>0.9065680693811997</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9548550374726467</v>
+        <v>39</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.9065680693811997</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>3.743713443553771</v>
       </c>
     </row>
@@ -8992,7 +8794,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615873746215033</v>
+        <v>1.622607638339964</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.558327316370625</v>
@@ -9081,7 +8883,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.654208982889117</v>
+        <v>1.655737010565954</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.588501028690788</v>
@@ -9170,7 +8972,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658439214688393</v>
+        <v>1.65655179443606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.5864999666783</v>
@@ -9259,7 +9061,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.654765568091797</v>
+        <v>1.658264183215209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.460838661177954</v>
@@ -9348,7 +9150,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.688914479978489</v>
+        <v>1.687594730680866</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.321651919169745</v>
@@ -9437,7 +9239,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.670173060863373</v>
+        <v>1.674992453354922</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.577656814322871</v>
@@ -9526,7 +9328,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667347556042365</v>
+        <v>1.670409455562561</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.492112250852063</v>
@@ -9615,7 +9417,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.690139176612993</v>
+        <v>1.689819811365576</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.409626554187389</v>
@@ -9704,7 +9506,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698559222295451</v>
+        <v>1.699904433311195</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.567645357808564</v>
@@ -9793,7 +9595,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.696793679646985</v>
+        <v>1.695987951215232</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.441753047662358</v>
@@ -9882,7 +9684,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706010416258212</v>
+        <v>1.705051096459645</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.509254828774454</v>
@@ -9971,7 +9773,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.701040104723853</v>
+        <v>1.700518909872215</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.62633729966355</v>
@@ -10060,7 +9862,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.703256540558244</v>
+        <v>1.703564771695141</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.675467747041208</v>
@@ -10149,7 +9951,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707809276293077</v>
+        <v>1.703778779595948</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.545072273983414</v>
@@ -10238,7 +10040,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.705850532190107</v>
+        <v>1.703464588448243</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.522708782065187</v>
@@ -10327,7 +10129,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.69916469111403</v>
+        <v>1.698021502143676</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.685591144635672</v>
@@ -10416,7 +10218,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.6951617064117</v>
+        <v>1.695722978894611</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.608784010207459</v>
@@ -10505,7 +10307,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.735435705495735</v>
+        <v>1.734003487864351</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.664008662624296</v>
@@ -10594,7 +10396,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.742321734264022</v>
+        <v>1.743669550731655</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.932784455404607</v>
@@ -10683,7 +10485,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.777023971224766</v>
+        <v>1.771257201681803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.868631863089223</v>
@@ -10772,7 +10574,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.781842541776539</v>
+        <v>1.778377628795779</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.808428411070065</v>
@@ -10861,7 +10663,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.788303111164099</v>
+        <v>1.787855011642756</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.754052994688526</v>
@@ -10950,7 +10752,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.782981173569634</v>
+        <v>1.786222962873311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.783236895433547</v>
@@ -11039,7 +10841,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.77837468339797</v>
+        <v>1.775939036593481</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.67091724540328</v>
@@ -11128,7 +10930,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.784801639927961</v>
+        <v>1.779047911740488</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.587020262946792</v>
@@ -11217,7 +11019,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.825324610402351</v>
+        <v>1.809003658829468</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.270452641596899</v>
@@ -11306,7 +11108,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.829725057548435</v>
+        <v>1.817155385872737</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.679348352631122</v>
@@ -11395,7 +11197,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.83440749721473</v>
+        <v>1.823734605215407</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.412469564315953</v>
@@ -11484,7 +11286,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.838674865159521</v>
+        <v>1.831949052969864</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.45738341335026</v>
@@ -11573,7 +11375,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.848812043131236</v>
+        <v>1.844667200312455</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.484817035921758</v>
@@ -11662,7 +11464,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.859352146244606</v>
+        <v>1.851683142456557</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.477575292079909</v>
@@ -11751,7 +11553,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.866454584247886</v>
+        <v>1.861167205266854</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.504067617720307</v>
@@ -11840,7 +11642,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.864848101438441</v>
+        <v>1.861725547427419</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.655744039065062</v>
@@ -11929,7 +11731,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.811794574271627</v>
+        <v>1.815855575607207</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.609983631827921</v>
@@ -12018,7 +11820,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.807996638747917</v>
+        <v>1.813787415548856</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.690412478855953</v>
@@ -12107,7 +11909,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.809274371628904</v>
+        <v>1.81262461508992</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.648297859967975</v>
@@ -12196,7 +11998,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.76605212105222</v>
+        <v>1.773782313174768</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.686794462020087</v>
@@ -12285,7 +12087,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.758818123695422</v>
+        <v>1.766618805148257</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.55531693990279</v>
@@ -12374,7 +12176,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716417529818949</v>
+        <v>1.729780950900222</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.592062699331606</v>
@@ -12463,7 +12265,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.7072821701299</v>
+        <v>1.72469113067242</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.614957515121079</v>
@@ -12552,7 +12354,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.711483837058202</v>
+        <v>1.735873676084316</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.568049987665467</v>
@@ -12641,7 +12443,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.706857323228646</v>
+        <v>1.731706935580193</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.521238766078058</v>
@@ -12730,7 +12532,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710760135900384</v>
+        <v>1.734655794449694</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.590707765015964</v>
@@ -12819,7 +12621,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712270192016448</v>
+        <v>1.734893420972041</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.614784708049886</v>
@@ -12908,7 +12710,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.668155213045491</v>
+        <v>1.697247329215028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.613437499658156</v>
@@ -12997,7 +12799,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662924355878829</v>
+        <v>1.693578986872679</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.633298772565727</v>
@@ -13086,7 +12888,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.657588729040948</v>
+        <v>1.685799040525805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.634754021101458</v>
@@ -13175,7 +12977,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.654860153530214</v>
+        <v>1.681875205949471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.433190734158611</v>
@@ -13264,7 +13066,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657207959457834</v>
+        <v>1.682741976111188</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.673823698761973</v>
@@ -13353,7 +13155,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.659640399035744</v>
+        <v>1.681348167642734</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.614220758772348</v>
@@ -13442,7 +13244,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.663384410863878</v>
+        <v>1.682672849940138</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.45405219908027</v>
@@ -13531,7 +13333,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.697061902239263</v>
+        <v>1.715575886823906</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.512942513823308</v>
@@ -13620,7 +13422,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.700727567577608</v>
+        <v>1.717336118941345</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.485815352105599</v>
@@ -13709,7 +13511,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.701201057389842</v>
+        <v>1.717387843372612</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.454333154001009</v>
@@ -13798,7 +13600,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.704862603708362</v>
+        <v>1.72309557342859</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.628165532506555</v>
@@ -13887,7 +13689,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.696152925181542</v>
+        <v>1.709081496138203</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.644507878385867</v>
@@ -13976,7 +13778,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.696055103166259</v>
+        <v>1.70970568432797</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.569494474387161</v>
@@ -14065,7 +13867,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68567725667718</v>
+        <v>1.697117879303166</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.691298028988985</v>
@@ -14154,7 +13956,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674661533359063</v>
+        <v>1.681304728622819</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.48203080015354</v>
@@ -14243,7 +14045,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714099354403829</v>
+        <v>1.708918513159226</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.485939757438184</v>
@@ -14332,7 +14134,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.712745164464399</v>
+        <v>1.706171233078407</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.534044606016546</v>
@@ -14421,7 +14223,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.714173976422824</v>
+        <v>1.710134039576683</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.587571163398079</v>
@@ -14510,7 +14312,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.718166080437517</v>
+        <v>1.712059345040827</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.680782038463575</v>
@@ -14599,7 +14401,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.757023730462757</v>
+        <v>1.74245713457336</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.56609294004012</v>
@@ -14688,7 +14490,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.750354496808452</v>
+        <v>1.740241528646519</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.667092681246302</v>
@@ -14777,7 +14579,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.741850421654646</v>
+        <v>1.732740800709352</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.657228704672908</v>
@@ -14866,7 +14668,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.740385500689643</v>
+        <v>1.726988859907165</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.698621350333945</v>
@@ -14955,7 +14757,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.746311809708786</v>
+        <v>1.732431462634997</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.825356500292334</v>
@@ -15044,7 +14846,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.792805082222066</v>
+        <v>1.772841062322031</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.474168200327604</v>
@@ -15133,7 +14935,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.788941402262176</v>
+        <v>1.766099717900917</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.757570061044954</v>
@@ -15222,7 +15024,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.719081440576864</v>
+        <v>1.714355727494908</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.492146993366179</v>
@@ -15311,7 +15113,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.685446620745302</v>
+        <v>1.689564091221258</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.481603865045157</v>
@@ -15400,7 +15202,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.68960759956478</v>
+        <v>1.692210131951501</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.423555818548573</v>
@@ -15489,7 +15291,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.672321159613729</v>
+        <v>1.674036035812817</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.498603361302642</v>
@@ -15578,7 +15380,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.664656542974777</v>
+        <v>1.671466273569576</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.369843256973129</v>
@@ -15667,7 +15469,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.665522132373441</v>
+        <v>1.678612554024745</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.469718152475915</v>
@@ -15953,7 +15755,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726017266839862</v>
+        <v>1.708739792646427</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.245378536025403</v>
@@ -16042,7 +15844,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.731048877703016</v>
+        <v>1.712579197234164</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.991335485919203</v>
@@ -16131,7 +15933,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72444894852086</v>
+        <v>1.706239813655901</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.133515741107003</v>
@@ -16220,7 +16022,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736964003727901</v>
+        <v>1.71408348236789</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.324385709870845</v>
@@ -16309,7 +16111,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.748364289269548</v>
+        <v>1.721787561084293</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.96450031147415</v>
@@ -16398,7 +16200,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.744297868710296</v>
+        <v>1.713699681200968</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.182684038626842</v>
@@ -16487,7 +16289,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.750988735176871</v>
+        <v>1.717451071084296</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.291919726734032</v>
@@ -16576,7 +16378,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.769931441916399</v>
+        <v>1.727982025740173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.42786569139623</v>
@@ -16665,7 +16467,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.769647513135887</v>
+        <v>1.721924318773347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.627528288517224</v>
@@ -16754,7 +16556,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.765484579605059</v>
+        <v>1.717946473636122</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.921948873743353</v>
@@ -16843,7 +16645,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.768634464242788</v>
+        <v>1.719726285697485</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.226729284048129</v>
@@ -16932,7 +16734,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.759077034235167</v>
+        <v>1.706907687209415</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.63733140694657</v>
@@ -17021,7 +16823,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.752638314625293</v>
+        <v>1.695516828457174</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.17253030794181</v>
@@ -17110,7 +16912,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.747898612931467</v>
+        <v>1.698535643979081</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.283015066854044</v>
@@ -17199,7 +17001,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.748713623981842</v>
+        <v>1.700490410082295</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.149487529464922</v>
@@ -17288,7 +17090,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.744299845850832</v>
+        <v>1.691213346974767</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.043776447694268</v>
@@ -17377,7 +17179,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.729571037812279</v>
+        <v>1.68138042765143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.463885069018785</v>
@@ -17466,7 +17268,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.728554561940898</v>
+        <v>1.679919367119317</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.73421424254</v>
@@ -17555,7 +17357,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.736142571857864</v>
+        <v>1.693867444866583</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.457898638604067</v>
@@ -17644,7 +17446,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.72914991429177</v>
+        <v>1.687413216051372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.85938633620954</v>
@@ -17733,7 +17535,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718558925203541</v>
+        <v>1.678081757020873</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.33416245873578</v>
@@ -17822,7 +17624,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.72705209674205</v>
+        <v>1.683459428234124</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.22075451249059</v>
@@ -17911,7 +17713,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.726822913880966</v>
+        <v>1.689158259364225</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.161159040073755</v>
@@ -18000,7 +17802,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.73076895476789</v>
+        <v>1.692930593079039</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.264502938258439</v>
@@ -18089,7 +17891,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733894766970176</v>
+        <v>1.693885733313703</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.278551102341272</v>
@@ -18178,7 +17980,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.734717803758131</v>
+        <v>1.697671168964632</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.358811800033658</v>
@@ -18267,7 +18069,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.733917812039534</v>
+        <v>1.697136338819494</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.163104334684251</v>
@@ -18356,7 +18158,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.735727322311067</v>
+        <v>1.707606308792547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.182763638550049</v>
@@ -18445,7 +18247,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.742653794965406</v>
+        <v>1.711064578917032</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.443781499164538</v>
@@ -18534,7 +18336,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.746236578778328</v>
+        <v>1.716238705070934</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.214312831204942</v>
@@ -18623,7 +18425,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746250682970757</v>
+        <v>1.723487365281422</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.366923114863922</v>
@@ -18712,7 +18514,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.744425945915128</v>
+        <v>1.722583353492717</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.190417866460754</v>
@@ -18801,7 +18603,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742183978805679</v>
+        <v>1.718552289574888</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.156283601791469</v>
@@ -18890,7 +18692,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720004118177326</v>
+        <v>1.697482597098202</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.239342707225941</v>
@@ -18979,7 +18781,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.729530772355004</v>
+        <v>1.708453829084721</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.959683280409682</v>
@@ -19068,7 +18870,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.736910630703558</v>
+        <v>1.713698313635295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.146460550456982</v>
@@ -19157,7 +18959,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.724207142559805</v>
+        <v>1.711080718610888</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.180314904582363</v>
@@ -19246,7 +19048,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70496284309897</v>
+        <v>1.693208362247057</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.998832988117395</v>
@@ -19335,7 +19137,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.692911433374943</v>
+        <v>1.685008703202005</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.95915558287414</v>
@@ -19424,7 +19226,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.685739562154791</v>
+        <v>1.680694925412899</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.150921394921939</v>
@@ -19513,7 +19315,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687677309433662</v>
+        <v>1.680683224980526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.950321943499767</v>
@@ -19602,7 +19404,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689318902205236</v>
+        <v>1.687254456807754</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.20061585045989</v>
@@ -19691,7 +19493,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687749038168323</v>
+        <v>1.68457532120165</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.012935007790624</v>
@@ -19780,7 +19582,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.679986461226206</v>
+        <v>1.680740468416992</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.150439091438415</v>
@@ -19869,7 +19671,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.658764279658149</v>
+        <v>1.660827407668369</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.10984705512225</v>
@@ -19958,7 +19760,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.661020783108165</v>
+        <v>1.659864028656874</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.162959765457096</v>
@@ -20047,7 +19849,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.649778556203315</v>
+        <v>1.648277664070482</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.012605061550522</v>
@@ -20136,7 +19938,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65416913792028</v>
+        <v>1.658912337611736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.011880559121524</v>
@@ -20225,7 +20027,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.667003119131604</v>
+        <v>1.666302662100616</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.067473332279537</v>
@@ -20314,7 +20116,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.670192229000059</v>
+        <v>1.669751505395178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.083177398601933</v>
@@ -20403,7 +20205,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.675413368394846</v>
+        <v>1.670703717948058</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.033919239284303</v>
@@ -20492,7 +20294,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67605197800187</v>
+        <v>1.670275725927896</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.150554322087838</v>
@@ -20581,7 +20383,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688891241644373</v>
+        <v>1.677941717588294</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.20301999791493</v>
@@ -20670,7 +20472,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.676628600372007</v>
+        <v>1.666976820325883</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.079163596115579</v>
@@ -20759,7 +20561,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.676461723946421</v>
+        <v>1.670346200104534</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.999294861050233</v>
@@ -20848,7 +20650,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.672099330440563</v>
+        <v>1.666648440302406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.213876716322031</v>
@@ -20937,7 +20739,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.656714675941762</v>
+        <v>1.649038221725108</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.146029687981684</v>
@@ -21026,7 +20828,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.643945011159464</v>
+        <v>1.627879647223755</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.947366666583739</v>
@@ -21115,7 +20917,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.631076230178912</v>
+        <v>1.621025286085171</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.171664318435591</v>
@@ -21204,7 +21006,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.64157770840278</v>
+        <v>1.627848162439119</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.003687417050453</v>
@@ -21293,7 +21095,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618584643148083</v>
+        <v>1.614145870027892</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.98164257747151</v>
@@ -21382,7 +21184,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.62615110973953</v>
+        <v>1.621603334532383</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.276173387439287</v>
@@ -21471,7 +21273,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.629159856618314</v>
+        <v>1.621512035285354</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.231093304254222</v>
@@ -21560,7 +21362,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.631186698079779</v>
+        <v>1.623268573271871</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.219337466688263</v>
@@ -21649,7 +21451,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.622519394646805</v>
+        <v>1.612729754128647</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.152078391471758</v>
@@ -21738,7 +21540,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.614665132658556</v>
+        <v>1.604254030162598</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.300407402304372</v>
@@ -21827,7 +21629,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.611824449418949</v>
+        <v>1.604279853926935</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.947321895743157</v>
@@ -21916,7 +21718,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6087848704653</v>
+        <v>1.600447610640036</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.236101315239146</v>
@@ -22005,7 +21807,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.622213146315036</v>
+        <v>1.610111853185538</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.20601872297754</v>
@@ -22094,7 +21896,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.614324814447796</v>
+        <v>1.598043262774725</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.17770599610508</v>
@@ -22183,7 +21985,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.600735808240461</v>
+        <v>1.580954304083495</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.947460224040056</v>
@@ -22272,7 +22074,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.596994274010129</v>
+        <v>1.577140918408802</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.095876269353979</v>
@@ -22361,7 +22163,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.600739856626199</v>
+        <v>1.583161488795938</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.207589143018422</v>
@@ -22450,7 +22252,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.586028958449791</v>
+        <v>1.568576666313023</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.138196880820201</v>
@@ -22539,7 +22341,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.595287065635507</v>
+        <v>1.574872899738856</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.833551565688521</v>
@@ -22628,7 +22430,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.601343032597963</v>
+        <v>1.577241234148057</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.081381569597561</v>
@@ -22914,7 +22716,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.773795344131788</v>
+        <v>1.760852382058015</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.20367847895496</v>
@@ -23003,7 +22805,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.778245832505246</v>
+        <v>1.759049653010396</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.885140963480139</v>
@@ -23092,7 +22894,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.778685237455961</v>
+        <v>1.761364066716382</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.110746303401862</v>
@@ -23181,7 +22983,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.776525598851052</v>
+        <v>1.753411207741431</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.669201454756143</v>
@@ -23270,7 +23072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.767594666042001</v>
+        <v>1.739186315043628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.594011096534345</v>
@@ -23359,7 +23161,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.754560506931188</v>
+        <v>1.72110871967552</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.670245651336364</v>
@@ -23448,7 +23250,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.748894416845427</v>
+        <v>1.714941848409236</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.800201871144739</v>
@@ -23537,7 +23339,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.752750647086092</v>
+        <v>1.713688617635887</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.210879260329414</v>
@@ -23626,7 +23428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752635519113169</v>
+        <v>1.709329374947223</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.726604690039022</v>
@@ -23715,7 +23517,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.74995091864546</v>
+        <v>1.708401846318361</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.015341026222915</v>
@@ -23804,7 +23606,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.755715744552505</v>
+        <v>1.713660554136499</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.440741025654074</v>
@@ -23893,7 +23695,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.753803466110522</v>
+        <v>1.710891996457501</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.808786721618672</v>
@@ -23982,7 +23784,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.745303532414595</v>
+        <v>1.706564503578779</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.96917826552171</v>
@@ -24071,7 +23873,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.747086083111966</v>
+        <v>1.704157198589839</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.380505880677261</v>
@@ -24160,7 +23962,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758786733935849</v>
+        <v>1.721180063747533</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.019334155194251</v>
@@ -24249,7 +24051,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.752384412823406</v>
+        <v>1.712401444867757</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.466809394784897</v>
@@ -24338,7 +24140,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763565477019952</v>
+        <v>1.716622814170218</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.506732216106153</v>
@@ -24427,7 +24229,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.773565907042862</v>
+        <v>1.724104547404108</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.070566826502839</v>
@@ -24516,7 +24318,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.778241953964716</v>
+        <v>1.737246833627942</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.694345927683873</v>
@@ -24605,7 +24407,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.794314638521138</v>
+        <v>1.748229038323357</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.996256467218587</v>
@@ -24694,7 +24496,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.795313505824717</v>
+        <v>1.753194337544413</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.317986938127942</v>
@@ -24783,7 +24585,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.78697948303298</v>
+        <v>1.746411524780215</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.712805160343662</v>
@@ -24872,7 +24674,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.78019813780007</v>
+        <v>1.742909553736069</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.342863965088386</v>
@@ -24961,7 +24763,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.775756377954791</v>
+        <v>1.741300590142317</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.244132217236753</v>
@@ -25050,7 +24852,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.770658374428233</v>
+        <v>1.732514773791781</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.310669692174481</v>
@@ -25139,7 +24941,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.781172238447538</v>
+        <v>1.740676460797997</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.442778825593324</v>
@@ -25228,7 +25030,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.777031906999326</v>
+        <v>1.739763763792521</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.408469478433104</v>
@@ -25317,7 +25119,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.787501652247253</v>
+        <v>1.747926849296884</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.943984510752371</v>
@@ -25406,7 +25208,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.795081163437874</v>
+        <v>1.758232665718013</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.481046052461815</v>
@@ -25495,7 +25297,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.78933411991959</v>
+        <v>1.747227196467142</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.666905283459967</v>
@@ -25584,7 +25386,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.79329650565581</v>
+        <v>1.759347289152829</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.917402292409686</v>
@@ -25673,7 +25475,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.797001839647947</v>
+        <v>1.765854294323075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.814884971370373</v>
@@ -25762,7 +25564,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.791765422072676</v>
+        <v>1.756646467540123</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.239837725288568</v>
@@ -25851,7 +25653,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.783126541531815</v>
+        <v>1.745069606215505</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.331099476924528</v>
@@ -25940,7 +25742,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.770218944765477</v>
+        <v>1.739269836926363</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.107374731744045</v>
@@ -26029,7 +25831,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.770405375098653</v>
+        <v>1.732571997436585</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.25305069709796</v>
@@ -26118,7 +25920,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.768061484950863</v>
+        <v>1.732911469351175</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.349274885782794</v>
@@ -26207,7 +26009,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.765408164285285</v>
+        <v>1.728817924483648</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.335859707880303</v>
@@ -26296,7 +26098,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.755457976485058</v>
+        <v>1.716205169810852</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.880958634185502</v>
@@ -26385,7 +26187,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.757710782667227</v>
+        <v>1.722521087894725</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.956577528094572</v>
@@ -26474,7 +26276,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.747988639434031</v>
+        <v>1.714528012688072</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.756154559350857</v>
@@ -26563,7 +26365,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.74743687633627</v>
+        <v>1.715012106433339</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.928028235034437</v>
@@ -26652,7 +26454,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.743842519227963</v>
+        <v>1.707084609923891</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.620688712590816</v>
@@ -26741,7 +26543,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.741683597794426</v>
+        <v>1.707287068299103</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.053122538267128</v>
@@ -26830,7 +26632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.735566415959247</v>
+        <v>1.706379723880366</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.779175275485685</v>
@@ -26919,7 +26721,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.733564653982422</v>
+        <v>1.701666331960476</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.674969186299017</v>
@@ -27008,7 +26810,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.730754174747231</v>
+        <v>1.70155092872868</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.04137776420083</v>
@@ -27097,7 +26899,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.736456846433056</v>
+        <v>1.712035695142483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.600774435374284</v>
@@ -27186,7 +26988,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.739886092128037</v>
+        <v>1.713029096266898</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.651567875637989</v>
@@ -27275,7 +27077,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.740323396634273</v>
+        <v>1.713568783361177</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.038221716585554</v>
@@ -27364,7 +27166,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.741081574851833</v>
+        <v>1.719921104827967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.402460188909553</v>
@@ -27453,7 +27255,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.755228858658675</v>
+        <v>1.731597829523151</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.465330955192834</v>
@@ -27542,7 +27344,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.765905926408666</v>
+        <v>1.740688613136762</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.820719258161272</v>
@@ -27631,7 +27433,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.76774679384789</v>
+        <v>1.742619922440029</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.885021966520169</v>
@@ -27720,7 +27522,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.767757321447695</v>
+        <v>1.737923620421805</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.21708410111523</v>
@@ -27809,7 +27611,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.766333628035947</v>
+        <v>1.732669804925228</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.135854362952052</v>
@@ -27898,7 +27700,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.7652721963673</v>
+        <v>1.729251565694149</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.610215192370736</v>
@@ -27987,7 +27789,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.748124954269779</v>
+        <v>1.714084633504743</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.568315166769871</v>
@@ -28076,7 +27878,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.73745829851144</v>
+        <v>1.70809183028751</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.306732020239494</v>
@@ -28165,7 +27967,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.743008806860448</v>
+        <v>1.71293732289916</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.263525854604597</v>
@@ -28254,7 +28056,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.741499897568464</v>
+        <v>1.710433699030439</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.519870859874759</v>
@@ -28343,7 +28145,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.74967993515306</v>
+        <v>1.712833533574357</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.139775717607667</v>
@@ -28432,7 +28234,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.751699085051993</v>
+        <v>1.714606446824445</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.580374184422529</v>
@@ -28521,7 +28323,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.757502158804649</v>
+        <v>1.717564241231815</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.799269292828153</v>
@@ -28610,7 +28412,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.762462635817627</v>
+        <v>1.720493824609077</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.91382165402476</v>
@@ -28699,7 +28501,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.755981483482633</v>
+        <v>1.711216949945713</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.696336913309034</v>
@@ -28788,7 +28590,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.751590269932863</v>
+        <v>1.704477910302231</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.867158073465801</v>
@@ -28877,7 +28679,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.748435671593905</v>
+        <v>1.70460209897949</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.839428495769118</v>
@@ -28966,7 +28768,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.755738828973622</v>
+        <v>1.707673609809254</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.567521746890524</v>
@@ -29055,7 +28857,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.750259829858613</v>
+        <v>1.702622005989495</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.70787980848168</v>
@@ -29144,7 +28946,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.747637232273873</v>
+        <v>1.707438182969937</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.982609759731012</v>
@@ -29233,7 +29035,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.745304599644946</v>
+        <v>1.709067587908895</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.850818678701965</v>
@@ -29322,7 +29124,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.762644079218572</v>
+        <v>1.725484196230835</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.90967521533327</v>
@@ -29411,7 +29213,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.758994095238582</v>
+        <v>1.719819651634472</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.275951133225032</v>
@@ -29500,7 +29302,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.743873751091155</v>
+        <v>1.706876999010827</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.739852429265451</v>
@@ -29589,7 +29391,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.746153936566253</v>
+        <v>1.709289127382769</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.957735958747437</v>
@@ -29875,7 +29677,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.68400974556538</v>
+        <v>1.642989018466806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.858661064582349</v>
@@ -29964,7 +29766,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688565306655634</v>
+        <v>1.644119195581981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.514567421164507</v>
@@ -30053,7 +29855,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.698111379122276</v>
+        <v>1.657078981247142</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.419513337282234</v>
@@ -30142,7 +29944,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.697740295163909</v>
+        <v>1.651764949750415</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.618056264629733</v>
@@ -30231,7 +30033,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.706879780826069</v>
+        <v>1.660975910834841</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.258015632860344</v>
@@ -30320,7 +30122,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705007528058578</v>
+        <v>1.665011885555126</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.871124924980585</v>
@@ -30409,7 +30211,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.712726052004545</v>
+        <v>1.668818964978115</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.6926533920649</v>
@@ -30498,7 +30300,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697004493888216</v>
+        <v>1.656850554792954</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.310355063142811</v>
@@ -30587,7 +30389,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.708424864581874</v>
+        <v>1.666015108000942</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.307305279760218</v>
@@ -30676,7 +30478,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.707767812788758</v>
+        <v>1.666476700082256</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.174433148811849</v>
@@ -30765,7 +30567,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.703645231874302</v>
+        <v>1.667425295933747</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.947904100463681</v>
@@ -30854,7 +30656,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.705735029432272</v>
+        <v>1.66891351951946</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.111637673621586</v>
@@ -30943,7 +30745,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.708985248821168</v>
+        <v>1.666637659940163</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985689357982523</v>
@@ -31032,7 +30834,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.720023472224857</v>
+        <v>1.677559318774725</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.927835229985098</v>
@@ -31121,7 +30923,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.722195691201269</v>
+        <v>1.67464565498723</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.112666419433108</v>
@@ -31210,7 +31012,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.715218410342816</v>
+        <v>1.666753265071847</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.836987796192264</v>
@@ -31299,7 +31101,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.709840461741608</v>
+        <v>1.661253404594408</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.074857422363479</v>
@@ -31388,7 +31190,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.706655292467653</v>
+        <v>1.659218939315236</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.150905616098854</v>
@@ -31477,7 +31279,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.720649313287198</v>
+        <v>1.673898600275781</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.14526275084055</v>
@@ -31566,7 +31368,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.728959087287517</v>
+        <v>1.681060814547063</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.166378949024197</v>
@@ -31655,7 +31457,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.728571925553042</v>
+        <v>1.676072919547855</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.436589990294434</v>
@@ -31744,7 +31546,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.729291905828997</v>
+        <v>1.67988391100516</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.94032477318688</v>
@@ -31833,7 +31635,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.739471196071705</v>
+        <v>1.689225881065888</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.904368297854068</v>
@@ -31922,7 +31724,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.729026338314974</v>
+        <v>1.674658477143593</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.545578314498436</v>
@@ -32011,7 +31813,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.731702208347232</v>
+        <v>1.68256568698582</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.247926126835147</v>
@@ -32100,7 +31902,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732924956501309</v>
+        <v>1.679722521623912</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.210810328938943</v>
@@ -32189,7 +31991,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.734143226547509</v>
+        <v>1.676095614703744</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.126093890278726</v>
@@ -32278,7 +32080,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.742553753668667</v>
+        <v>1.686978530185307</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.924503410871389</v>
@@ -32367,7 +32169,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.743791599417062</v>
+        <v>1.685431324683534</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.448002716069368</v>
@@ -32456,7 +32258,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.738718366860433</v>
+        <v>1.682728232547981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.086054110434895</v>
@@ -32545,7 +32347,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.741612203904834</v>
+        <v>1.690382960533118</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.966270730984545</v>
@@ -32634,7 +32436,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749855196404676</v>
+        <v>1.700579574727113</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.000519642514757</v>
@@ -32723,7 +32525,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.747485764795936</v>
+        <v>1.69032149744492</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.00554556863187</v>
@@ -32812,7 +32614,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.738015559311432</v>
+        <v>1.684456948002906</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.58826537137222</v>
@@ -32901,7 +32703,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.746231590629335</v>
+        <v>1.692610475611363</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.679409070325544</v>
@@ -32990,7 +32792,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.74803575299997</v>
+        <v>1.699462681811064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.940422017256924</v>
@@ -33079,7 +32881,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.7433099311854</v>
+        <v>1.696425032345273</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.756512052653862</v>
@@ -33168,7 +32970,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.749741461536998</v>
+        <v>1.701389650995355</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.395244824055863</v>
@@ -33257,7 +33059,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.745216875214416</v>
+        <v>1.701455546695087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.644257519752681</v>
@@ -33346,7 +33148,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.744965132150644</v>
+        <v>1.698869770302152</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.618183687786445</v>
@@ -33435,7 +33237,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.737476108212465</v>
+        <v>1.697320676166142</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.501024283157698</v>
@@ -33524,7 +33326,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.727293343400146</v>
+        <v>1.683987257407207</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.71906568021217</v>
@@ -33613,7 +33415,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.721104931969536</v>
+        <v>1.680319633639708</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.763420545645047</v>
@@ -33702,7 +33504,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.718094032501528</v>
+        <v>1.680293459721124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.553906125565206</v>
@@ -33791,7 +33593,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.718115459532853</v>
+        <v>1.683136043650262</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.832689824667217</v>
@@ -33880,7 +33682,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719056712728198</v>
+        <v>1.684769386571092</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.790256059158208</v>
@@ -33969,7 +33771,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.715428022025623</v>
+        <v>1.682740149440346</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.371360082320332</v>
@@ -34058,7 +33860,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.713714481736093</v>
+        <v>1.690751004499176</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.668843541751834</v>
@@ -34147,7 +33949,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714438050154598</v>
+        <v>1.687663909295862</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.901123448093752</v>
@@ -34236,7 +34038,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.706181919174798</v>
+        <v>1.677256548558182</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.542931729486571</v>
@@ -34325,7 +34127,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.700990598804139</v>
+        <v>1.672742652788993</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.132293191221491</v>
@@ -34414,7 +34216,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.704842208837322</v>
+        <v>1.672000067547091</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.010493095284332</v>
@@ -34503,7 +34305,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.707785955262671</v>
+        <v>1.672992502365593</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.632226057865938</v>
@@ -34592,7 +34394,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.70963497681063</v>
+        <v>1.67025899658557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.873962135812967</v>
@@ -34681,7 +34483,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710026036589278</v>
+        <v>1.674229213984627</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.948030033250709</v>
@@ -34770,7 +34572,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.714898204953742</v>
+        <v>1.677103384340877</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.713631607647732</v>
@@ -34859,7 +34661,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.725326114716569</v>
+        <v>1.684130219441026</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.514867625343111</v>
@@ -34948,7 +34750,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.719779648738881</v>
+        <v>1.676559699828451</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.522558641131969</v>
@@ -35037,7 +34839,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.719317535340675</v>
+        <v>1.670461530062776</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.461934217549517</v>
@@ -35126,7 +34928,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.707258273735135</v>
+        <v>1.66074440570007</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.43292104804731</v>
@@ -35215,7 +35017,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.712164830568659</v>
+        <v>1.665416766734567</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.092981670272356</v>
@@ -35304,7 +35106,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.707090348371147</v>
+        <v>1.660469212428559</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.161865055762444</v>
@@ -35393,7 +35195,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.711827795080734</v>
+        <v>1.656377264946548</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.433842463843607</v>
@@ -35482,7 +35284,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.718719021772304</v>
+        <v>1.665182703938754</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.277551398101537</v>
@@ -35571,7 +35373,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.714788370490848</v>
+        <v>1.661294481357595</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.392245307658369</v>
@@ -35660,7 +35462,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.70728946238624</v>
+        <v>1.654497782365526</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.352380061430045</v>
@@ -35749,7 +35551,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.70271832189656</v>
+        <v>1.655765756229568</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.179530720207985</v>
@@ -35838,7 +35640,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.699852470843909</v>
+        <v>1.655284998239188</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.180084720876567</v>
@@ -35927,7 +35729,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.706464870796733</v>
+        <v>1.664984378572359</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.527607839198506</v>
@@ -36016,7 +35818,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.698821298827593</v>
+        <v>1.651497167066937</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.308235788029386</v>
@@ -36105,7 +35907,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.692749615271856</v>
+        <v>1.642308831862748</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.36254770924492</v>
@@ -36194,7 +35996,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.688491518048369</v>
+        <v>1.643859792092456</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.240541699873892</v>
@@ -36283,7 +36085,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.686510044686519</v>
+        <v>1.640787955761495</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.079898569148424</v>
@@ -36372,7 +36174,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.688304897166557</v>
+        <v>1.648354372337368</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.136894800544355</v>
@@ -36461,7 +36263,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.686775176299799</v>
+        <v>1.64446818237235</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.641408304675536</v>
@@ -36550,7 +36352,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.691396248048253</v>
+        <v>1.643368625577218</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.416377446292483</v>
@@ -36836,7 +36638,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.580781678297599</v>
+        <v>1.559156867624218</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.256811505089402</v>
@@ -36925,7 +36727,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.575569702594112</v>
+        <v>1.557748196777691</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.917842361469659</v>
@@ -37014,7 +36816,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585452864901108</v>
+        <v>1.561831934013479</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.166120938812079</v>
@@ -37103,7 +36905,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604668316691026</v>
+        <v>1.581189956221869</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.157845866957474</v>
@@ -37192,7 +36994,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.625696064872928</v>
+        <v>1.599872621177972</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.050302911120059</v>
@@ -37281,7 +37083,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630494200654929</v>
+        <v>1.601721312047018</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.178535911167491</v>
@@ -37370,7 +37172,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643394093925276</v>
+        <v>1.613887811343057</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.133306189562914</v>
@@ -37459,7 +37261,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670734938550051</v>
+        <v>1.636561898801926</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.164163705790967</v>
@@ -37548,7 +37350,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.684490398422224</v>
+        <v>1.643706832278071</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.937019800999607</v>
@@ -37637,7 +37439,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.681481386666991</v>
+        <v>1.643684281787548</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.877056351883323</v>
@@ -37726,7 +37528,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.688433312355612</v>
+        <v>1.645273538705286</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.693285772312537</v>
@@ -37815,7 +37617,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681823780181853</v>
+        <v>1.63463142542859</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.370090433788131</v>
@@ -37904,7 +37706,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.677389510993442</v>
+        <v>1.630768660458278</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.9001906372119</v>
@@ -37993,7 +37795,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.690779457870357</v>
+        <v>1.644098569820587</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.400484107856439</v>
@@ -38082,7 +37884,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.693579798358823</v>
+        <v>1.647578382863749</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.240412685021977</v>
@@ -38171,7 +37973,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.686180637609213</v>
+        <v>1.644705018123847</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.577008030708947</v>
@@ -38260,7 +38062,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683938923076862</v>
+        <v>1.642702915965866</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.464777141621961</v>
@@ -38349,7 +38151,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.692316147429599</v>
+        <v>1.651450314679612</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.906062237414532</v>
@@ -38438,7 +38240,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.691913156254349</v>
+        <v>1.650583848878819</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.456357753471575</v>
@@ -38527,7 +38329,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.689842629052251</v>
+        <v>1.652462686977488</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.862431262973133</v>
@@ -38616,7 +38418,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.682447997634368</v>
+        <v>1.643103478965122</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.048463562385655</v>
@@ -38705,7 +38507,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.676669043824629</v>
+        <v>1.639963345087813</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.147910587530204</v>
@@ -38794,7 +38596,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.674435850885829</v>
+        <v>1.642285044962988</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.882843359942682</v>
@@ -38883,7 +38685,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.66300262474087</v>
+        <v>1.63885743599463</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.855166868232093</v>
@@ -38972,7 +38774,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.661869686946615</v>
+        <v>1.634374582902892</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.083550518811744</v>
@@ -39061,7 +38863,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.663060172295119</v>
+        <v>1.639981805992566</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.974416071037487</v>
@@ -39150,7 +38952,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.667281663230867</v>
+        <v>1.648905057077803</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.938295025926077</v>
@@ -39239,7 +39041,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667145005893214</v>
+        <v>1.647660504244123</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.131090579197072</v>
@@ -39328,7 +39130,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.6589442946903</v>
+        <v>1.640799919957878</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.092720506855967</v>
@@ -39417,7 +39219,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668659031457169</v>
+        <v>1.647476876356816</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.936907138825409</v>
@@ -39506,7 +39308,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672462723207133</v>
+        <v>1.65068588421841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.104254040991734</v>
@@ -39595,7 +39397,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659872749213586</v>
+        <v>1.639330000205417</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.952599168180946</v>
@@ -39684,7 +39486,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.647803753651246</v>
+        <v>1.629985492867793</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.157732007671782</v>
@@ -39773,7 +39575,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640355353412568</v>
+        <v>1.622580773729416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.030088334620362</v>
@@ -39862,7 +39664,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637654685892028</v>
+        <v>1.620412171092439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.96055322273769</v>
@@ -39951,7 +39753,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642155805916057</v>
+        <v>1.623529409850225</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.304974698778675</v>
@@ -40040,7 +39842,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643404404635926</v>
+        <v>1.627625725888617</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.476792916018178</v>
@@ -40129,7 +39931,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641600197068486</v>
+        <v>1.627730966677262</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.12565569518068</v>
@@ -40218,7 +40020,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643417779317626</v>
+        <v>1.627332377627958</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.068964949001073</v>
@@ -40307,7 +40109,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646108313474771</v>
+        <v>1.628296102651002</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.158285065493263</v>
@@ -40396,7 +40198,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645325437090217</v>
+        <v>1.62696191796239</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.171058453380275</v>
@@ -40485,7 +40287,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.642420204577877</v>
+        <v>1.624818459312984</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.442300084037176</v>
@@ -40574,7 +40376,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650301705462048</v>
+        <v>1.631722048575207</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.032042678849005</v>
@@ -40663,7 +40465,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.647504423141307</v>
+        <v>1.629085607698561</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.356538516545946</v>
@@ -40752,7 +40554,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.635322249854025</v>
+        <v>1.621490160519357</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.184600401800436</v>
@@ -40841,7 +40643,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633575278877885</v>
+        <v>1.618550968503637</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.282121703518537</v>
@@ -40930,7 +40732,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.637753682691094</v>
+        <v>1.623382011158321</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.021656681763506</v>
@@ -41019,7 +40821,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64934589745956</v>
+        <v>1.636916475034531</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.122590943907411</v>
@@ -41108,7 +40910,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657020511075411</v>
+        <v>1.646296700259648</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.050861150206932</v>
@@ -41197,7 +40999,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.665306124879737</v>
+        <v>1.654808411192749</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.128813922977781</v>
@@ -41286,7 +41088,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.674749097780961</v>
+        <v>1.662670078007407</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.159217333577784</v>
@@ -41375,7 +41177,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.673924182997366</v>
+        <v>1.656818435248209</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.192769529355568</v>
@@ -41464,7 +41266,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675152825671666</v>
+        <v>1.651408893598511</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.195818333467541</v>
@@ -41553,7 +41355,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666832889726306</v>
+        <v>1.643071986678606</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.063312400968901</v>
@@ -41642,7 +41444,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.665930568897661</v>
+        <v>1.647482700625534</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.077093690362287</v>
@@ -41731,7 +41533,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.662619880707359</v>
+        <v>1.645150139875962</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.852494302692208</v>
@@ -41820,7 +41622,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.643118495934235</v>
+        <v>1.627385722890512</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.144140559456825</v>
@@ -41909,7 +41711,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.632778334994424</v>
+        <v>1.611488614718812</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.114811425706816</v>
@@ -41998,7 +41800,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.598653050094965</v>
+        <v>1.584662970671747</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.664824096182401</v>
@@ -42087,7 +41889,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59902106420886</v>
+        <v>1.580641222567358</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.870064969791628</v>
@@ -42176,7 +41978,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588462906214255</v>
+        <v>1.583395026084548</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.737176136168452</v>
@@ -42265,7 +42067,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.586130695171197</v>
+        <v>1.586101325468059</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.826957319626725</v>
@@ -42354,7 +42156,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.586023067497313</v>
+        <v>1.581199299998352</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.861304495728292</v>
@@ -42443,7 +42245,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.584890620188915</v>
+        <v>1.578532092008064</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.737090978608572</v>
@@ -42532,7 +42334,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.578236484925716</v>
+        <v>1.571526531034405</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.786395078055997</v>
@@ -42621,7 +42423,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.566500273501048</v>
+        <v>1.556792322086572</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.745799438671432</v>
@@ -42710,7 +42512,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567789760570118</v>
+        <v>1.55927219776491</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.685607947070916</v>
@@ -42799,7 +42601,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.564316199160312</v>
+        <v>1.558392676863841</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.725593243758258</v>
@@ -42888,7 +42690,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.581329510171096</v>
+        <v>1.575482274524246</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.932853815849148</v>
@@ -42977,7 +42779,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.575112334372992</v>
+        <v>1.569982735011099</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.683763473795446</v>
@@ -43066,7 +42868,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.55829799724252</v>
+        <v>1.551197739163622</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.842821301024629</v>
@@ -43155,7 +42957,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.556401326757726</v>
+        <v>1.550763557363203</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.96071827864357</v>
@@ -43244,7 +43046,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.561370037351354</v>
+        <v>1.55585651444325</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.701458269785976</v>
@@ -43333,7 +43135,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.560396858929231</v>
+        <v>1.55495216810393</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.139439946887495</v>
@@ -43422,7 +43224,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.572536144295434</v>
+        <v>1.559218096574747</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.004518040175055</v>
@@ -43511,7 +43313,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.576506341520355</v>
+        <v>1.560570605982153</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.180854567430774</v>
@@ -43797,7 +43599,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609900738719821</v>
+        <v>1.603103213466156</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.609061819612955</v>
@@ -43886,7 +43688,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.636035961822241</v>
+        <v>1.625508786408345</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.860202338217649</v>
@@ -43975,7 +43777,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.655087417481614</v>
+        <v>1.636763962288932</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.61156240878507</v>
@@ -44064,7 +43866,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664445636061492</v>
+        <v>1.646934147639002</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.620447821637535</v>
@@ -44153,7 +43955,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.691158738051641</v>
+        <v>1.67437988709562</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.412689380865765</v>
@@ -44242,7 +44044,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.694216768408781</v>
+        <v>1.685887453007356</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.670943251270431</v>
@@ -44331,7 +44133,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708635871222333</v>
+        <v>1.695522643123233</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.786764939734223</v>
@@ -44420,7 +44222,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.703916651167914</v>
+        <v>1.691442130707597</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.797093247810523</v>
@@ -44509,7 +44311,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.705082266558357</v>
+        <v>1.695975625709465</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.718015462328416</v>
@@ -44598,7 +44400,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.709785390319741</v>
+        <v>1.702158883653214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.660773879991688</v>
@@ -44687,7 +44489,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701334176482457</v>
+        <v>1.692969737382658</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.773368976624856</v>
@@ -44776,7 +44578,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702582379750899</v>
+        <v>1.694175170691359</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.819117018276012</v>
@@ -44865,7 +44667,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.710345288474957</v>
+        <v>1.697250629303257</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.716832548234069</v>
@@ -44954,7 +44756,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.704367141393907</v>
+        <v>1.690247851157678</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.755354251817224</v>
@@ -45043,7 +44845,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.700669431703667</v>
+        <v>1.685226410303498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.769295553725462</v>
@@ -45132,7 +44934,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692701984427651</v>
+        <v>1.676321631311058</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.614521851001723</v>
@@ -45221,7 +45023,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.700879809822594</v>
+        <v>1.686002649776192</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.834228212870483</v>
@@ -45310,7 +45112,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.728124002293824</v>
+        <v>1.713096179113019</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.792886684336007</v>
@@ -45399,7 +45201,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726381404143538</v>
+        <v>1.712050535063881</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.712289697559687</v>
@@ -45488,7 +45290,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755123373856049</v>
+        <v>1.732909802584009</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.775186759034628</v>
@@ -45577,7 +45379,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.752751455306792</v>
+        <v>1.729286244365525</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.841667715878</v>
@@ -45666,7 +45468,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754193564665774</v>
+        <v>1.739952856081408</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.983027948384238</v>
@@ -45755,7 +45557,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.760586067049195</v>
+        <v>1.746258600226326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.785984801296476</v>
@@ -45844,7 +45646,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.757733004212862</v>
+        <v>1.738755674757897</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.818246497806286</v>
@@ -45933,7 +45735,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.756781058123355</v>
+        <v>1.736949652435401</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.539856690749545</v>
@@ -46022,7 +45824,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.795072522042559</v>
+        <v>1.768344521442937</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.168125393531667</v>
@@ -46111,7 +45913,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.796091078552517</v>
+        <v>1.76757582940685</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.404533665982551</v>
@@ -46200,7 +46002,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.795397527959972</v>
+        <v>1.767288989887655</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.287512537060162</v>
@@ -46289,7 +46091,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.803081403760669</v>
+        <v>1.777048732112732</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.105405908396399</v>
@@ -46378,7 +46180,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.802181631058572</v>
+        <v>1.774328674555654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.422488455191438</v>
@@ -46467,7 +46269,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.807466320391252</v>
+        <v>1.785694765192878</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.997915229226683</v>
@@ -46556,7 +46358,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.809537975716382</v>
+        <v>1.783294266103026</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.148018958024011</v>
@@ -46645,7 +46447,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.811064748135637</v>
+        <v>1.780386580956016</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.991865831085362</v>
@@ -46734,7 +46536,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.760917009020561</v>
+        <v>1.742655672384656</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.980337774453581</v>
@@ -46823,7 +46625,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.759668798668743</v>
+        <v>1.743109359046487</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.72042670280911</v>
@@ -46912,7 +46714,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.761677928127892</v>
+        <v>1.747415576840269</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.793508634770538</v>
@@ -47001,7 +46803,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736836978013937</v>
+        <v>1.716473132169869</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.158928978341485</v>
@@ -47090,7 +46892,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.738233389190924</v>
+        <v>1.713954965815013</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.831045781149705</v>
@@ -47179,7 +46981,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.704209247851144</v>
+        <v>1.689139504110309</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.813118826465947</v>
@@ -47268,7 +47070,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.698455271492687</v>
+        <v>1.678216036533207</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.848251045577952</v>
@@ -47357,7 +47159,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.689448777501788</v>
+        <v>1.67891969184122</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.77371026060456</v>
@@ -47446,7 +47248,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688389216664424</v>
+        <v>1.6779810821757</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.713887818127201</v>
@@ -47535,7 +47337,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.683103113684167</v>
+        <v>1.675862589087478</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.661690901918081</v>
@@ -47624,7 +47426,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.67377870329445</v>
+        <v>1.666701112136047</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.81512287273657</v>
@@ -47713,7 +47515,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.646574611551672</v>
+        <v>1.64760386051433</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.689679279634045</v>
@@ -47802,7 +47604,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.647047528157807</v>
+        <v>1.646324981825043</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.730545443007985</v>
@@ -47891,7 +47693,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.636558241593045</v>
+        <v>1.636108040836392</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.77748707545338</v>
@@ -47980,7 +47782,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637483839210194</v>
+        <v>1.641788026777634</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.658885167670777</v>
@@ -48069,7 +47871,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.653548947778819</v>
+        <v>1.652151891532323</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.664566986500163</v>
@@ -48158,7 +47960,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.657366086140879</v>
+        <v>1.655173281712412</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.743645211097697</v>
@@ -48247,7 +48049,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.647404070030934</v>
+        <v>1.642279082681589</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.530124592781501</v>
@@ -48336,7 +48138,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.665025784927972</v>
+        <v>1.665921673191338</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.516183312826885</v>
@@ -48425,7 +48227,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.661290055210121</v>
+        <v>1.665782492752606</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.913557282218249</v>
@@ -48514,7 +48316,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.667783417731435</v>
+        <v>1.666374946827158</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.606600423921372</v>
@@ -48603,7 +48405,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675443437817251</v>
+        <v>1.673940757689744</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.596394101795414</v>
@@ -48692,7 +48494,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.670283569268036</v>
+        <v>1.668427457757836</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.851593617017204</v>
@@ -48781,7 +48583,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.671978556828484</v>
+        <v>1.669465363142955</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.824086943317111</v>
@@ -48870,7 +48672,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.670921992725281</v>
+        <v>1.662328717482576</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.958253621239407</v>
@@ -48959,7 +48761,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.670469112040544</v>
+        <v>1.656670049892812</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.593064025021384</v>
@@ -49048,7 +48850,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.706367567795431</v>
+        <v>1.680305141707952</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.681766246679216</v>
@@ -49137,7 +48939,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.693424997608773</v>
+        <v>1.668381009136729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.677576539826358</v>
@@ -49226,7 +49028,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.700338344760932</v>
+        <v>1.675349126829893</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.637346335075401</v>
@@ -49315,7 +49117,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.698998088732124</v>
+        <v>1.671683812952759</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.743188345815297</v>
@@ -49404,7 +49206,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.715359427870705</v>
+        <v>1.686250332947221</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.883954767101</v>
@@ -49493,7 +49295,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.708558084294675</v>
+        <v>1.678352725227302</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.64324323092857</v>
@@ -49582,7 +49384,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.719813976626622</v>
+        <v>1.689405235208803</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.739472934244557</v>
@@ -49671,7 +49473,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.721053986039738</v>
+        <v>1.683533872321175</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.74163920563199</v>
@@ -49760,7 +49562,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.725459893147704</v>
+        <v>1.688000967502628</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.929549406162713</v>
@@ -49849,7 +49651,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.75604373319856</v>
+        <v>1.718754773959436</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.214825416967388</v>
@@ -49938,7 +49740,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.753249898905959</v>
+        <v>1.714609687245868</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.088010649439958</v>
@@ -50027,7 +49829,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.715465036941128</v>
+        <v>1.684443457025038</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.933324980200146</v>
@@ -50116,7 +49918,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.705400707677205</v>
+        <v>1.674074439331209</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.812874312284938</v>
@@ -50205,7 +50007,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.711132359781965</v>
+        <v>1.679759809168778</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.660581639918001</v>
@@ -50294,7 +50096,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.700892860851983</v>
+        <v>1.674307307842784</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.68267493837823</v>
@@ -50383,7 +50185,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.69235669372411</v>
+        <v>1.667952585541264</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.787485660850046</v>
@@ -50472,7 +50274,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.697208886608787</v>
+        <v>1.674066743637884</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.810431430999246</v>
